--- a/rpg-magazine/checklist.xlsx
+++ b/rpg-magazine/checklist.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/rpg-magazine/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6306199C-551C-7648-A017-421D14058684}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB4EB5B-F535-254D-9326-3BA69786CF85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{3BFE8C2C-ED0F-E146-B934-456C15A9C7AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="232">
   <si>
     <t>year</t>
   </si>
@@ -603,6 +603,132 @@
   </si>
   <si>
     <t>Hobby Japan</t>
+  </si>
+  <si>
+    <t>93.jpg</t>
+  </si>
+  <si>
+    <t>94.jpg</t>
+  </si>
+  <si>
+    <t>95.jpg</t>
+  </si>
+  <si>
+    <t>96.jpg</t>
+  </si>
+  <si>
+    <t>97.jpg</t>
+  </si>
+  <si>
+    <t>98.jpg</t>
+  </si>
+  <si>
+    <t>99.jpg</t>
+  </si>
+  <si>
+    <t>100.jpg</t>
+  </si>
+  <si>
+    <t>101.jpg</t>
+  </si>
+  <si>
+    <t>102.jpg</t>
+  </si>
+  <si>
+    <t>103.jpg</t>
+  </si>
+  <si>
+    <t>104.jpg</t>
+  </si>
+  <si>
+    <t>105.jpg</t>
+  </si>
+  <si>
+    <t>106.jpg</t>
+  </si>
+  <si>
+    <t>107.jpg</t>
+  </si>
+  <si>
+    <t>108.jpg</t>
+  </si>
+  <si>
+    <t>110.jpg</t>
+  </si>
+  <si>
+    <t>111.jpg</t>
+  </si>
+  <si>
+    <t>112.jpg</t>
+  </si>
+  <si>
+    <t>109.jpg</t>
+  </si>
+  <si>
+    <t>product_type</t>
+  </si>
+  <si>
+    <t>periodical</t>
+  </si>
+  <si>
+    <t>1998/1</t>
+  </si>
+  <si>
+    <t>1998/2</t>
+  </si>
+  <si>
+    <t>1998/3</t>
+  </si>
+  <si>
+    <t>1998/4</t>
+  </si>
+  <si>
+    <t>1998/5</t>
+  </si>
+  <si>
+    <t>1998/6</t>
+  </si>
+  <si>
+    <t>1998/7</t>
+  </si>
+  <si>
+    <t>1998/8</t>
+  </si>
+  <si>
+    <t>1998/9</t>
+  </si>
+  <si>
+    <t>1998/10</t>
+  </si>
+  <si>
+    <t>1998/11</t>
+  </si>
+  <si>
+    <t>1998/12</t>
+  </si>
+  <si>
+    <t>1999/1</t>
+  </si>
+  <si>
+    <t>1999/2</t>
+  </si>
+  <si>
+    <t>1999/3</t>
+  </si>
+  <si>
+    <t>1999/4</t>
+  </si>
+  <si>
+    <t>1999/5</t>
+  </si>
+  <si>
+    <t>1999/6</t>
+  </si>
+  <si>
+    <t>1999/7</t>
+  </si>
+  <si>
+    <t>1999/8</t>
   </si>
 </sst>
 </file>
@@ -652,9 +778,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -969,10 +1098,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B47AED-A5B6-EF45-861A-8A9F30A72403}">
-  <dimension ref="A1:E93"/>
+  <dimension ref="A1:F113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D93"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94:A113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -981,7 +1110,7 @@
     <col min="4" max="4" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -997,8 +1126,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>LEFT(C2, 4)</f>
         <v>1990</v>
@@ -1016,8 +1148,11 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A66" si="0">LEFT(C3, 4)</f>
         <v>1990</v>
@@ -1035,8 +1170,11 @@
       <c r="E3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>1990</v>
@@ -1054,8 +1192,11 @@
       <c r="E4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>1990</v>
@@ -1073,8 +1214,11 @@
       <c r="E5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>1990</v>
@@ -1092,8 +1236,11 @@
       <c r="E6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>1990</v>
@@ -1111,8 +1258,11 @@
       <c r="E7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>1990</v>
@@ -1130,8 +1280,11 @@
       <c r="E8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>1990</v>
@@ -1149,8 +1302,11 @@
       <c r="E9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>1991</v>
@@ -1168,8 +1324,11 @@
       <c r="E10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>1991</v>
@@ -1187,8 +1346,11 @@
       <c r="E11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>1991</v>
@@ -1206,8 +1368,11 @@
       <c r="E12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>1991</v>
@@ -1225,8 +1390,11 @@
       <c r="E13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>1991</v>
@@ -1244,8 +1412,11 @@
       <c r="E14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>1991</v>
@@ -1263,8 +1434,11 @@
       <c r="E15" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>1991</v>
@@ -1282,8 +1456,11 @@
       <c r="E16" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>1991</v>
@@ -1301,8 +1478,11 @@
       <c r="E17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>1991</v>
@@ -1320,8 +1500,11 @@
       <c r="E18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>1991</v>
@@ -1339,8 +1522,11 @@
       <c r="E19" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>1991</v>
@@ -1358,8 +1544,11 @@
       <c r="E20" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>1991</v>
@@ -1377,8 +1566,11 @@
       <c r="E21" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>1992</v>
@@ -1396,8 +1588,11 @@
       <c r="E22" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>1992</v>
@@ -1415,8 +1610,11 @@
       <c r="E23" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>1992</v>
@@ -1434,8 +1632,11 @@
       <c r="E24" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>1992</v>
@@ -1453,8 +1654,11 @@
       <c r="E25" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>1992</v>
@@ -1472,8 +1676,11 @@
       <c r="E26" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>1992</v>
@@ -1491,8 +1698,11 @@
       <c r="E27" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>1992</v>
@@ -1510,8 +1720,11 @@
       <c r="E28" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>1992</v>
@@ -1529,8 +1742,11 @@
       <c r="E29" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>1992</v>
@@ -1548,8 +1764,11 @@
       <c r="E30" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>1992</v>
@@ -1567,8 +1786,11 @@
       <c r="E31" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>1992</v>
@@ -1586,8 +1808,11 @@
       <c r="E32" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>1992</v>
@@ -1605,8 +1830,11 @@
       <c r="E33" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>1993</v>
@@ -1624,8 +1852,11 @@
       <c r="E34" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>1993</v>
@@ -1643,8 +1874,11 @@
       <c r="E35" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>1993</v>
@@ -1662,8 +1896,11 @@
       <c r="E36" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>1993</v>
@@ -1681,8 +1918,11 @@
       <c r="E37" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>1993</v>
@@ -1700,8 +1940,11 @@
       <c r="E38" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>1993</v>
@@ -1719,8 +1962,11 @@
       <c r="E39" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>1993</v>
@@ -1738,8 +1984,11 @@
       <c r="E40" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>1993</v>
@@ -1757,8 +2006,11 @@
       <c r="E41" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>1993</v>
@@ -1776,8 +2028,11 @@
       <c r="E42" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F42" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v>1993</v>
@@ -1795,8 +2050,11 @@
       <c r="E43" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F43" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>1993</v>
@@ -1814,8 +2072,11 @@
       <c r="E44" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F44" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>1993</v>
@@ -1833,8 +2094,11 @@
       <c r="E45" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F45" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>1994</v>
@@ -1852,8 +2116,11 @@
       <c r="E46" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F46" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>1994</v>
@@ -1871,8 +2138,11 @@
       <c r="E47" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F47" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>1994</v>
@@ -1890,8 +2160,11 @@
       <c r="E48" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>1994</v>
@@ -1909,8 +2182,11 @@
       <c r="E49" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>1994</v>
@@ -1928,8 +2204,11 @@
       <c r="E50" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F50" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v>1994</v>
@@ -1947,8 +2226,11 @@
       <c r="E51" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
         <v>1994</v>
@@ -1966,8 +2248,11 @@
       <c r="E52" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F52" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v>1994</v>
@@ -1985,8 +2270,11 @@
       <c r="E53" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F53" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v>1994</v>
@@ -2004,8 +2292,11 @@
       <c r="E54" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F54" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
         <v>1994</v>
@@ -2023,8 +2314,11 @@
       <c r="E55" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F55" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
         <v>1994</v>
@@ -2042,8 +2336,11 @@
       <c r="E56" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F56" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
         <v>1994</v>
@@ -2061,8 +2358,11 @@
       <c r="E57" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F57" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
         <v>1995</v>
@@ -2080,8 +2380,11 @@
       <c r="E58" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F58" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
         <v>1995</v>
@@ -2099,8 +2402,11 @@
       <c r="E59" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F59" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
         <v>1995</v>
@@ -2118,8 +2424,11 @@
       <c r="E60" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F60" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
         <v>1995</v>
@@ -2137,8 +2446,11 @@
       <c r="E61" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F61" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
         <v>1995</v>
@@ -2156,8 +2468,11 @@
       <c r="E62" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F62" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
         <v>1995</v>
@@ -2175,8 +2490,11 @@
       <c r="E63" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F63" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
         <v>1995</v>
@@ -2194,8 +2512,11 @@
       <c r="E64" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F64" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
         <v>1995</v>
@@ -2213,8 +2534,11 @@
       <c r="E65" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F65" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="str">
         <f t="shared" si="0"/>
         <v>1995</v>
@@ -2232,14 +2556,17 @@
       <c r="E66" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F66" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="str">
         <f t="shared" ref="A67:A93" si="2">LEFT(C67, 4)</f>
         <v>1995</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" ref="B67:B93" si="3">CONCATENATE(C67, " ", "No. ", LEFT(E67,2))</f>
+        <f t="shared" ref="B67:B113" si="3">CONCATENATE(C67, " ", "No. ", LEFT(E67,2))</f>
         <v>1995/10 No. 66</v>
       </c>
       <c r="C67" t="s">
@@ -2251,8 +2578,11 @@
       <c r="E67" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F67" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="str">
         <f t="shared" si="2"/>
         <v>1995</v>
@@ -2270,8 +2600,11 @@
       <c r="E68" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F68" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="str">
         <f t="shared" si="2"/>
         <v>1995</v>
@@ -2289,8 +2622,11 @@
       <c r="E69" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F69" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="str">
         <f t="shared" si="2"/>
         <v>1996</v>
@@ -2308,8 +2644,11 @@
       <c r="E70" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F70" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="str">
         <f t="shared" si="2"/>
         <v>1996</v>
@@ -2327,8 +2666,11 @@
       <c r="E71" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F71" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="str">
         <f t="shared" si="2"/>
         <v>1996</v>
@@ -2346,8 +2688,11 @@
       <c r="E72" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F72" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="str">
         <f t="shared" si="2"/>
         <v>1996</v>
@@ -2365,8 +2710,11 @@
       <c r="E73" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F73" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="str">
         <f t="shared" si="2"/>
         <v>1996</v>
@@ -2384,8 +2732,11 @@
       <c r="E74" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F74" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="str">
         <f t="shared" si="2"/>
         <v>1996</v>
@@ -2403,8 +2754,11 @@
       <c r="E75" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F75" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="str">
         <f t="shared" si="2"/>
         <v>1996</v>
@@ -2422,8 +2776,11 @@
       <c r="E76" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F76" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="str">
         <f t="shared" si="2"/>
         <v>1996</v>
@@ -2441,8 +2798,11 @@
       <c r="E77" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F77" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="str">
         <f t="shared" si="2"/>
         <v>1996</v>
@@ -2460,8 +2820,11 @@
       <c r="E78" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F78" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="str">
         <f t="shared" si="2"/>
         <v>1996</v>
@@ -2479,8 +2842,11 @@
       <c r="E79" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F79" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="str">
         <f t="shared" si="2"/>
         <v>1996</v>
@@ -2498,8 +2864,11 @@
       <c r="E80" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F80" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="str">
         <f t="shared" si="2"/>
         <v>1996</v>
@@ -2517,8 +2886,11 @@
       <c r="E81" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F81" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="str">
         <f t="shared" si="2"/>
         <v>1997</v>
@@ -2536,8 +2908,11 @@
       <c r="E82" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F82" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="str">
         <f t="shared" si="2"/>
         <v>1997</v>
@@ -2555,8 +2930,11 @@
       <c r="E83" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F83" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="str">
         <f t="shared" si="2"/>
         <v>1997</v>
@@ -2574,8 +2952,11 @@
       <c r="E84" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F84" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="str">
         <f t="shared" si="2"/>
         <v>1997</v>
@@ -2593,8 +2974,11 @@
       <c r="E85" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F85" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="str">
         <f t="shared" si="2"/>
         <v>1997</v>
@@ -2612,8 +2996,11 @@
       <c r="E86" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F86" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="str">
         <f t="shared" si="2"/>
         <v>1997</v>
@@ -2631,8 +3018,11 @@
       <c r="E87" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F87" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="str">
         <f t="shared" si="2"/>
         <v>1997</v>
@@ -2650,8 +3040,11 @@
       <c r="E88" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F88" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="str">
         <f t="shared" si="2"/>
         <v>1997</v>
@@ -2669,8 +3062,11 @@
       <c r="E89" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F89" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="str">
         <f t="shared" si="2"/>
         <v>1997</v>
@@ -2688,8 +3084,11 @@
       <c r="E90" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F90" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="str">
         <f t="shared" si="2"/>
         <v>1997</v>
@@ -2707,8 +3106,11 @@
       <c r="E91" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F91" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="str">
         <f t="shared" si="2"/>
         <v>1997</v>
@@ -2726,8 +3128,11 @@
       <c r="E92" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F92" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="str">
         <f t="shared" si="2"/>
         <v>1997</v>
@@ -2744,6 +3149,429 @@
       </c>
       <c r="E93" t="s">
         <v>96</v>
+      </c>
+      <c r="F93" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" s="2">
+        <v>1998</v>
+      </c>
+      <c r="B94" t="str">
+        <f t="shared" si="3"/>
+        <v>1998/1 No. 93</v>
+      </c>
+      <c r="C94" t="s">
+        <v>212</v>
+      </c>
+      <c r="D94" t="s">
+        <v>189</v>
+      </c>
+      <c r="E94" t="s">
+        <v>190</v>
+      </c>
+      <c r="F94" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" s="2">
+        <v>1998</v>
+      </c>
+      <c r="B95" t="str">
+        <f t="shared" si="3"/>
+        <v>1998/2 No. 94</v>
+      </c>
+      <c r="C95" t="s">
+        <v>213</v>
+      </c>
+      <c r="D95" t="s">
+        <v>189</v>
+      </c>
+      <c r="E95" t="s">
+        <v>191</v>
+      </c>
+      <c r="F95" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" s="2">
+        <v>1998</v>
+      </c>
+      <c r="B96" t="str">
+        <f t="shared" si="3"/>
+        <v>1998/3 No. 95</v>
+      </c>
+      <c r="C96" t="s">
+        <v>214</v>
+      </c>
+      <c r="D96" t="s">
+        <v>189</v>
+      </c>
+      <c r="E96" t="s">
+        <v>192</v>
+      </c>
+      <c r="F96" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" s="2">
+        <v>1998</v>
+      </c>
+      <c r="B97" t="str">
+        <f t="shared" si="3"/>
+        <v>1998/4 No. 96</v>
+      </c>
+      <c r="C97" t="s">
+        <v>215</v>
+      </c>
+      <c r="D97" t="s">
+        <v>189</v>
+      </c>
+      <c r="E97" t="s">
+        <v>193</v>
+      </c>
+      <c r="F97" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="2">
+        <v>1998</v>
+      </c>
+      <c r="B98" t="str">
+        <f t="shared" si="3"/>
+        <v>1998/5 No. 97</v>
+      </c>
+      <c r="C98" t="s">
+        <v>216</v>
+      </c>
+      <c r="D98" t="s">
+        <v>189</v>
+      </c>
+      <c r="E98" t="s">
+        <v>194</v>
+      </c>
+      <c r="F98" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="2">
+        <v>1998</v>
+      </c>
+      <c r="B99" t="str">
+        <f t="shared" si="3"/>
+        <v>1998/6 No. 98</v>
+      </c>
+      <c r="C99" t="s">
+        <v>217</v>
+      </c>
+      <c r="D99" t="s">
+        <v>189</v>
+      </c>
+      <c r="E99" t="s">
+        <v>195</v>
+      </c>
+      <c r="F99" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" s="2">
+        <v>1998</v>
+      </c>
+      <c r="B100" t="str">
+        <f t="shared" si="3"/>
+        <v>1998/7 No. 99</v>
+      </c>
+      <c r="C100" t="s">
+        <v>218</v>
+      </c>
+      <c r="D100" t="s">
+        <v>189</v>
+      </c>
+      <c r="E100" t="s">
+        <v>196</v>
+      </c>
+      <c r="F100" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" s="2">
+        <v>1998</v>
+      </c>
+      <c r="B101" t="str">
+        <f>CONCATENATE(C101, " ", "No. ", LEFT(E101,3))</f>
+        <v>1998/8 No. 100</v>
+      </c>
+      <c r="C101" t="s">
+        <v>219</v>
+      </c>
+      <c r="D101" t="s">
+        <v>189</v>
+      </c>
+      <c r="E101" t="s">
+        <v>197</v>
+      </c>
+      <c r="F101" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" s="2">
+        <v>1998</v>
+      </c>
+      <c r="B102" t="str">
+        <f t="shared" ref="B102:B113" si="4">CONCATENATE(C102, " ", "No. ", LEFT(E102,3))</f>
+        <v>1998/9 No. 101</v>
+      </c>
+      <c r="C102" t="s">
+        <v>220</v>
+      </c>
+      <c r="D102" t="s">
+        <v>189</v>
+      </c>
+      <c r="E102" t="s">
+        <v>198</v>
+      </c>
+      <c r="F102" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" s="2">
+        <v>1998</v>
+      </c>
+      <c r="B103" t="str">
+        <f t="shared" si="4"/>
+        <v>1998/10 No. 102</v>
+      </c>
+      <c r="C103" t="s">
+        <v>221</v>
+      </c>
+      <c r="D103" t="s">
+        <v>189</v>
+      </c>
+      <c r="E103" t="s">
+        <v>199</v>
+      </c>
+      <c r="F103" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" s="2">
+        <v>1998</v>
+      </c>
+      <c r="B104" t="str">
+        <f t="shared" si="4"/>
+        <v>1998/11 No. 103</v>
+      </c>
+      <c r="C104" t="s">
+        <v>222</v>
+      </c>
+      <c r="D104" t="s">
+        <v>189</v>
+      </c>
+      <c r="E104" t="s">
+        <v>200</v>
+      </c>
+      <c r="F104" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" s="2">
+        <v>1998</v>
+      </c>
+      <c r="B105" t="str">
+        <f t="shared" si="4"/>
+        <v>1998/12 No. 104</v>
+      </c>
+      <c r="C105" t="s">
+        <v>223</v>
+      </c>
+      <c r="D105" t="s">
+        <v>189</v>
+      </c>
+      <c r="E105" t="s">
+        <v>201</v>
+      </c>
+      <c r="F105" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" s="2">
+        <v>1999</v>
+      </c>
+      <c r="B106" t="str">
+        <f t="shared" si="4"/>
+        <v>1999/1 No. 105</v>
+      </c>
+      <c r="C106" t="s">
+        <v>224</v>
+      </c>
+      <c r="D106" t="s">
+        <v>189</v>
+      </c>
+      <c r="E106" t="s">
+        <v>202</v>
+      </c>
+      <c r="F106" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" s="2">
+        <v>1999</v>
+      </c>
+      <c r="B107" t="str">
+        <f t="shared" si="4"/>
+        <v>1999/2 No. 106</v>
+      </c>
+      <c r="C107" t="s">
+        <v>225</v>
+      </c>
+      <c r="D107" t="s">
+        <v>189</v>
+      </c>
+      <c r="E107" t="s">
+        <v>203</v>
+      </c>
+      <c r="F107" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" s="2">
+        <v>1999</v>
+      </c>
+      <c r="B108" t="str">
+        <f t="shared" si="4"/>
+        <v>1999/3 No. 107</v>
+      </c>
+      <c r="C108" t="s">
+        <v>226</v>
+      </c>
+      <c r="D108" t="s">
+        <v>189</v>
+      </c>
+      <c r="E108" t="s">
+        <v>204</v>
+      </c>
+      <c r="F108" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" s="2">
+        <v>1999</v>
+      </c>
+      <c r="B109" t="str">
+        <f t="shared" si="4"/>
+        <v>1999/4 No. 108</v>
+      </c>
+      <c r="C109" t="s">
+        <v>227</v>
+      </c>
+      <c r="D109" t="s">
+        <v>189</v>
+      </c>
+      <c r="E109" t="s">
+        <v>205</v>
+      </c>
+      <c r="F109" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" s="2">
+        <v>1999</v>
+      </c>
+      <c r="B110" t="str">
+        <f t="shared" si="4"/>
+        <v>1999/5 No. 109</v>
+      </c>
+      <c r="C110" t="s">
+        <v>228</v>
+      </c>
+      <c r="D110" t="s">
+        <v>189</v>
+      </c>
+      <c r="E110" t="s">
+        <v>209</v>
+      </c>
+      <c r="F110" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" s="2">
+        <v>1999</v>
+      </c>
+      <c r="B111" t="str">
+        <f t="shared" si="4"/>
+        <v>1999/6 No. 110</v>
+      </c>
+      <c r="C111" t="s">
+        <v>229</v>
+      </c>
+      <c r="D111" t="s">
+        <v>189</v>
+      </c>
+      <c r="E111" t="s">
+        <v>206</v>
+      </c>
+      <c r="F111" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" s="2">
+        <v>1999</v>
+      </c>
+      <c r="B112" t="str">
+        <f t="shared" si="4"/>
+        <v>1999/7 No. 111</v>
+      </c>
+      <c r="C112" t="s">
+        <v>230</v>
+      </c>
+      <c r="D112" t="s">
+        <v>189</v>
+      </c>
+      <c r="E112" t="s">
+        <v>207</v>
+      </c>
+      <c r="F112" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" s="2">
+        <v>1999</v>
+      </c>
+      <c r="B113" t="str">
+        <f t="shared" si="4"/>
+        <v>1999/8 No. 112</v>
+      </c>
+      <c r="C113" t="s">
+        <v>231</v>
+      </c>
+      <c r="D113" t="s">
+        <v>189</v>
+      </c>
+      <c r="E113" t="s">
+        <v>208</v>
+      </c>
+      <c r="F113" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
